--- a/Code/Results/Cases/Case_0_87/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_87/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9907410571962568</v>
+        <v>1.020739023565577</v>
       </c>
       <c r="D2">
-        <v>0.9992143946561947</v>
+        <v>1.023383788850451</v>
       </c>
       <c r="E2">
-        <v>0.9985052466388473</v>
+        <v>1.021710124372327</v>
       </c>
       <c r="F2">
-        <v>1.000085898275332</v>
+        <v>1.032008871629843</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043696084066021</v>
+        <v>1.030658878237871</v>
       </c>
       <c r="J2">
-        <v>1.013202272961451</v>
+        <v>1.025934434659937</v>
       </c>
       <c r="K2">
-        <v>1.010684685069457</v>
+        <v>1.026215386724597</v>
       </c>
       <c r="L2">
-        <v>1.009985445104469</v>
+        <v>1.024546651824302</v>
       </c>
       <c r="M2">
-        <v>1.011544036527101</v>
+        <v>1.034815340958775</v>
       </c>
       <c r="N2">
-        <v>1.008432009756707</v>
+        <v>1.012723153298275</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9951145730486193</v>
+        <v>1.021647206146306</v>
       </c>
       <c r="D3">
-        <v>1.002935367744873</v>
+        <v>1.024204234389573</v>
       </c>
       <c r="E3">
-        <v>1.001969288487763</v>
+        <v>1.022478920721165</v>
       </c>
       <c r="F3">
-        <v>1.005308506710293</v>
+        <v>1.033150557738757</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044910582922666</v>
+        <v>1.030815290256242</v>
       </c>
       <c r="J3">
-        <v>1.015739311577197</v>
+        <v>1.026480149982627</v>
       </c>
       <c r="K3">
-        <v>1.013530827267836</v>
+        <v>1.026842662581355</v>
       </c>
       <c r="L3">
-        <v>1.012577033760533</v>
+        <v>1.025122062327767</v>
       </c>
       <c r="M3">
-        <v>1.015873911830827</v>
+        <v>1.035764818409987</v>
       </c>
       <c r="N3">
-        <v>1.009275723647746</v>
+        <v>1.012903942161363</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9978839731845867</v>
+        <v>1.022234911755387</v>
       </c>
       <c r="D4">
-        <v>1.005296346711912</v>
+        <v>1.024735450234839</v>
       </c>
       <c r="E4">
-        <v>1.004168897202695</v>
+        <v>1.022976834058881</v>
       </c>
       <c r="F4">
-        <v>1.008613915766214</v>
+        <v>1.033889239151937</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045663142980715</v>
+        <v>1.030914482627918</v>
       </c>
       <c r="J4">
-        <v>1.017341962465412</v>
+        <v>1.026832713393403</v>
       </c>
       <c r="K4">
-        <v>1.015331267037485</v>
+        <v>1.027248239625685</v>
       </c>
       <c r="L4">
-        <v>1.014217266368597</v>
+        <v>1.025494185369543</v>
       </c>
       <c r="M4">
-        <v>1.01860947832202</v>
+        <v>1.036378553493329</v>
       </c>
       <c r="N4">
-        <v>1.00980863927356</v>
+        <v>1.01302071631921</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9990342410112192</v>
+        <v>1.022481994522112</v>
       </c>
       <c r="D5">
-        <v>1.006278087757879</v>
+        <v>1.02495885184943</v>
       </c>
       <c r="E5">
-        <v>1.005083925608778</v>
+        <v>1.023186263498707</v>
       </c>
       <c r="F5">
-        <v>1.009986465499641</v>
+        <v>1.034199764963797</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045971711144373</v>
+        <v>1.030955699683256</v>
       </c>
       <c r="J5">
-        <v>1.018006665933553</v>
+        <v>1.026980798345791</v>
       </c>
       <c r="K5">
-        <v>1.016078613443886</v>
+        <v>1.027418668495763</v>
       </c>
       <c r="L5">
-        <v>1.014898306420829</v>
+        <v>1.025650575666081</v>
       </c>
       <c r="M5">
-        <v>1.01974422303176</v>
+        <v>1.036636414159825</v>
       </c>
       <c r="N5">
-        <v>1.010029650887741</v>
+        <v>1.013069757998456</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9992265700978915</v>
+        <v>1.022523481446248</v>
       </c>
       <c r="D6">
-        <v>1.006442302781061</v>
+        <v>1.024996366530801</v>
       </c>
       <c r="E6">
-        <v>1.005237004242304</v>
+        <v>1.023221433842818</v>
       </c>
       <c r="F6">
-        <v>1.010215941780572</v>
+        <v>1.034251902681533</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046023067834435</v>
+        <v>1.03096259184208</v>
       </c>
       <c r="J6">
-        <v>1.018117749729365</v>
+        <v>1.027005654655028</v>
       </c>
       <c r="K6">
-        <v>1.016203544281013</v>
+        <v>1.027447279785455</v>
       </c>
       <c r="L6">
-        <v>1.01501216443862</v>
+        <v>1.025676831313048</v>
       </c>
       <c r="M6">
-        <v>1.019933870617669</v>
+        <v>1.036679701087449</v>
       </c>
       <c r="N6">
-        <v>1.010066584835854</v>
+        <v>1.013077989360957</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9978993974272582</v>
+        <v>1.022238213243929</v>
       </c>
       <c r="D7">
-        <v>1.005309506794239</v>
+        <v>1.024738435031294</v>
       </c>
       <c r="E7">
-        <v>1.004181161490394</v>
+        <v>1.022979632047703</v>
       </c>
       <c r="F7">
-        <v>1.008632321962711</v>
+        <v>1.033893388475463</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045667296552433</v>
+        <v>1.030915035272525</v>
       </c>
       <c r="J7">
-        <v>1.017350879467259</v>
+        <v>1.026834692634267</v>
       </c>
       <c r="K7">
-        <v>1.015341290280955</v>
+        <v>1.027250517203299</v>
       </c>
       <c r="L7">
-        <v>1.014226399561935</v>
+        <v>1.025496275262858</v>
       </c>
       <c r="M7">
-        <v>1.018624700199594</v>
+        <v>1.03638199964393</v>
       </c>
       <c r="N7">
-        <v>1.009811604213953</v>
+        <v>1.013021371814073</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9922319614739508</v>
+        <v>1.02104593712012</v>
       </c>
       <c r="D8">
-        <v>1.000481824593889</v>
+        <v>1.023660992662177</v>
       </c>
       <c r="E8">
-        <v>0.99968480917628</v>
+        <v>1.021969848645305</v>
       </c>
       <c r="F8">
-        <v>1.00186663027012</v>
+        <v>1.032394723375693</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044113527071825</v>
+        <v>1.0307121556019</v>
       </c>
       <c r="J8">
-        <v>1.014067923013267</v>
+        <v>1.026118975283159</v>
       </c>
       <c r="K8">
-        <v>1.011655273212405</v>
+        <v>1.026427441657381</v>
       </c>
       <c r="L8">
-        <v>1.010869051614941</v>
+        <v>1.024741156615038</v>
       </c>
       <c r="M8">
-        <v>1.013021376092149</v>
+        <v>1.0351363537312</v>
       </c>
       <c r="N8">
-        <v>1.008719900285765</v>
+        <v>1.012784294694592</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9817570963904075</v>
+        <v>1.018945418717983</v>
       </c>
       <c r="D9">
-        <v>0.9915989946005395</v>
+        <v>1.021765001447214</v>
       </c>
       <c r="E9">
-        <v>0.9914251857629295</v>
+        <v>1.020193986672613</v>
       </c>
       <c r="F9">
-        <v>0.9893463041385927</v>
+        <v>1.029753382813528</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041112638455033</v>
+        <v>1.030339237602121</v>
       </c>
       <c r="J9">
-        <v>1.007970924054551</v>
+        <v>1.024853606455448</v>
       </c>
       <c r="K9">
-        <v>1.004829858833322</v>
+        <v>1.024974725760659</v>
       </c>
       <c r="L9">
-        <v>1.004658932421333</v>
+        <v>1.023409002741984</v>
       </c>
       <c r="M9">
-        <v>1.00261462785753</v>
+        <v>1.032936473421835</v>
       </c>
       <c r="N9">
-        <v>1.006692047975566</v>
+        <v>1.012364952232903</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9744093040259948</v>
+        <v>1.017545404543967</v>
       </c>
       <c r="D10">
-        <v>0.985397761758192</v>
+        <v>1.020502823406391</v>
       </c>
       <c r="E10">
-        <v>0.9856688528059019</v>
+        <v>1.019012506527999</v>
       </c>
       <c r="F10">
-        <v>0.9805493850152484</v>
+        <v>1.027992152282702</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038923389720854</v>
+        <v>1.030080294813624</v>
       </c>
       <c r="J10">
-        <v>1.00367636885822</v>
+        <v>1.024007261340852</v>
       </c>
       <c r="K10">
-        <v>1.000035765996104</v>
+        <v>1.024004720957709</v>
       </c>
       <c r="L10">
-        <v>1.000301772974045</v>
+        <v>1.022519917994995</v>
       </c>
       <c r="M10">
-        <v>0.9952789370509182</v>
+        <v>1.031466608074518</v>
       </c>
       <c r="N10">
-        <v>1.005263576638686</v>
+        <v>1.012084344137782</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9711322999584512</v>
+        <v>1.016939270572932</v>
       </c>
       <c r="D11">
-        <v>0.9826398266598391</v>
+        <v>1.019956731000265</v>
       </c>
       <c r="E11">
-        <v>0.9831112707197102</v>
+        <v>1.018501503003402</v>
       </c>
       <c r="F11">
-        <v>0.9766217674468974</v>
+        <v>1.027229438863479</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037927767236892</v>
+        <v>1.029965726518161</v>
       </c>
       <c r="J11">
-        <v>1.001757351538334</v>
+        <v>1.023640137937234</v>
       </c>
       <c r="K11">
-        <v>0.9978967282687835</v>
+        <v>1.023584346681489</v>
       </c>
       <c r="L11">
-        <v>0.9983588700068052</v>
+        <v>1.022134712117656</v>
       </c>
       <c r="M11">
-        <v>0.99199845303372</v>
+        <v>1.03082936380731</v>
       </c>
       <c r="N11">
-        <v>1.004625272813028</v>
+        <v>1.011962593049338</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9698999274965965</v>
+        <v>1.016714138303317</v>
       </c>
       <c r="D12">
-        <v>0.9816038775630805</v>
+        <v>1.019753954989282</v>
       </c>
       <c r="E12">
-        <v>0.9821509672490014</v>
+        <v>1.018311782592889</v>
       </c>
       <c r="F12">
-        <v>0.9751439834643425</v>
+        <v>1.026946119519924</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037550517798488</v>
+        <v>1.02992280402919</v>
       </c>
       <c r="J12">
-        <v>1.001035158394866</v>
+        <v>1.02350367494797</v>
       </c>
       <c r="K12">
-        <v>0.9970922135328869</v>
+        <v>1.023428148321015</v>
       </c>
       <c r="L12">
-        <v>0.9976283063673143</v>
+        <v>1.021991596309441</v>
       </c>
       <c r="M12">
-        <v>0.9907633980519182</v>
+        <v>1.030592545262173</v>
       </c>
       <c r="N12">
-        <v>1.004385060728194</v>
+        <v>1.011917332591101</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9701649748659857</v>
+        <v>1.01676242934642</v>
       </c>
       <c r="D13">
-        <v>0.9818266239589898</v>
+        <v>1.019797448081974</v>
       </c>
       <c r="E13">
-        <v>0.9823574307986167</v>
+        <v>1.018352474217068</v>
       </c>
       <c r="F13">
-        <v>0.97546184649497</v>
+        <v>1.027006893101298</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037631779911056</v>
+        <v>1.029932027635565</v>
       </c>
       <c r="J13">
-        <v>1.00119050360472</v>
+        <v>1.023532951101144</v>
       </c>
       <c r="K13">
-        <v>0.9972652446177407</v>
+        <v>1.023461655768449</v>
       </c>
       <c r="L13">
-        <v>0.9977854240735662</v>
+        <v>1.022022296625322</v>
       </c>
       <c r="M13">
-        <v>0.9910290851113314</v>
+        <v>1.030643348968558</v>
       </c>
       <c r="N13">
-        <v>1.004436730611952</v>
+        <v>1.011927042768777</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9710307456263505</v>
+        <v>1.016920660802921</v>
       </c>
       <c r="D14">
-        <v>0.9825544335869449</v>
+        <v>1.019939968098539</v>
       </c>
       <c r="E14">
-        <v>0.9830321051270606</v>
+        <v>1.018485818831932</v>
       </c>
       <c r="F14">
-        <v>0.9765000053596407</v>
+        <v>1.027206019877477</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037896736903456</v>
+        <v>1.029962186009914</v>
       </c>
       <c r="J14">
-        <v>1.00169784901378</v>
+        <v>1.023628859838927</v>
       </c>
       <c r="K14">
-        <v>0.9978304334055266</v>
+        <v>1.023571436345362</v>
       </c>
       <c r="L14">
-        <v>0.9982986652324032</v>
+        <v>1.022122882792805</v>
       </c>
       <c r="M14">
-        <v>0.991896705812277</v>
+        <v>1.030809790712753</v>
       </c>
       <c r="N14">
-        <v>1.004605481300285</v>
+        <v>1.011958852552536</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9715621428349053</v>
+        <v>1.017018154150922</v>
       </c>
       <c r="D15">
-        <v>0.9830013147739013</v>
+        <v>1.020027788297539</v>
       </c>
       <c r="E15">
-        <v>0.9834464124139001</v>
+        <v>1.018567988684032</v>
       </c>
       <c r="F15">
-        <v>0.9771371118770015</v>
+        <v>1.0273287066439</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038058992557332</v>
+        <v>1.029980719000647</v>
       </c>
       <c r="J15">
-        <v>1.002009183571313</v>
+        <v>1.023687939543664</v>
       </c>
       <c r="K15">
-        <v>0.9981773270017473</v>
+        <v>1.023639068831427</v>
       </c>
       <c r="L15">
-        <v>0.9986136993896735</v>
+        <v>1.022184852875865</v>
       </c>
       <c r="M15">
-        <v>0.9924290561077138</v>
+        <v>1.030912325373624</v>
       </c>
       <c r="N15">
-        <v>1.004709036441745</v>
+        <v>1.011978446757214</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.974624710204809</v>
+        <v>1.017585633429628</v>
       </c>
       <c r="D16">
-        <v>0.9855792138025662</v>
+        <v>1.020539075101589</v>
       </c>
       <c r="E16">
-        <v>0.985837176130541</v>
+        <v>1.019046432574977</v>
       </c>
       <c r="F16">
-        <v>0.9808074604750446</v>
+        <v>1.02804276916437</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0389884391079</v>
+        <v>1.030087846878285</v>
       </c>
       <c r="J16">
-        <v>1.003802437296315</v>
+        <v>1.024031612469254</v>
       </c>
       <c r="K16">
-        <v>1.000176354980957</v>
+        <v>1.024032612387638</v>
       </c>
       <c r="L16">
-        <v>1.000429495977839</v>
+        <v>1.022545478141263</v>
       </c>
       <c r="M16">
-        <v>0.9954943838566783</v>
+        <v>1.0315088833809</v>
       </c>
       <c r="N16">
-        <v>1.005305509926383</v>
+        <v>1.012092419197751</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9765196866509359</v>
+        <v>1.017941620439646</v>
       </c>
       <c r="D17">
-        <v>0.9871763730816616</v>
+        <v>1.020859910097474</v>
       </c>
       <c r="E17">
-        <v>0.9873190601611611</v>
+        <v>1.019346705258806</v>
       </c>
       <c r="F17">
-        <v>0.9830773064451612</v>
+        <v>1.0284906577207</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039558511240593</v>
+        <v>1.03015439130645</v>
       </c>
       <c r="J17">
-        <v>1.00491107265991</v>
+        <v>1.024247015786843</v>
       </c>
       <c r="K17">
-        <v>1.001413046011343</v>
+        <v>1.024279377185448</v>
       </c>
       <c r="L17">
-        <v>1.001553146497612</v>
+        <v>1.022771628823412</v>
       </c>
       <c r="M17">
-        <v>0.9973887037072686</v>
+        <v>1.031882878839648</v>
       </c>
       <c r="N17">
-        <v>1.005674268914446</v>
+        <v>1.012163845443768</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9776158518960171</v>
+        <v>1.018149269451126</v>
       </c>
       <c r="D18">
-        <v>0.988100991344197</v>
+        <v>1.021047090009902</v>
       </c>
       <c r="E18">
-        <v>0.9881771792438921</v>
+        <v>1.01952190562021</v>
       </c>
       <c r="F18">
-        <v>0.9843899143070144</v>
+        <v>1.028751894970177</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039886445149684</v>
+        <v>1.030192969666182</v>
       </c>
       <c r="J18">
-        <v>1.005552017533888</v>
+        <v>1.0243725940983</v>
       </c>
       <c r="K18">
-        <v>1.002128327600365</v>
+        <v>1.024423276533532</v>
       </c>
       <c r="L18">
-        <v>1.002203159100054</v>
+        <v>1.022903516800243</v>
       </c>
       <c r="M18">
-        <v>0.9984836504843959</v>
+        <v>1.032100948530009</v>
       </c>
       <c r="N18">
-        <v>1.005887463188567</v>
+        <v>1.012205483418128</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9779880891173609</v>
+        <v>1.018220073703163</v>
       </c>
       <c r="D19">
-        <v>0.9884150961878295</v>
+        <v>1.021110920663007</v>
       </c>
       <c r="E19">
-        <v>0.9884687329551258</v>
+        <v>1.019581653945122</v>
       </c>
       <c r="F19">
-        <v>0.984835585378209</v>
+        <v>1.028840968675613</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039997493240148</v>
+        <v>1.030206083864917</v>
       </c>
       <c r="J19">
-        <v>1.00576960900889</v>
+        <v>1.024415402383971</v>
       </c>
       <c r="K19">
-        <v>1.002371206697131</v>
+        <v>1.024472336635534</v>
       </c>
       <c r="L19">
-        <v>1.002423894450362</v>
+        <v>1.022948483454499</v>
       </c>
       <c r="M19">
-        <v>0.998855332802442</v>
+        <v>1.03217529184817</v>
       </c>
       <c r="N19">
-        <v>1.005959839545207</v>
+        <v>1.012219676855437</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9763173249928175</v>
+        <v>1.017903425589785</v>
       </c>
       <c r="D20">
-        <v>0.9870057389280681</v>
+        <v>1.020825483157012</v>
       </c>
       <c r="E20">
-        <v>0.9871607170495286</v>
+        <v>1.019314483001151</v>
       </c>
       <c r="F20">
-        <v>0.9828349555444975</v>
+        <v>1.028442604405217</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039497823463952</v>
+        <v>1.030147276113421</v>
       </c>
       <c r="J20">
-        <v>1.0047927196754</v>
+        <v>1.024223911539922</v>
       </c>
       <c r="K20">
-        <v>1.001280990951959</v>
+        <v>1.024252905208487</v>
       </c>
       <c r="L20">
-        <v>1.001433150379613</v>
+        <v>1.022747367253776</v>
       </c>
       <c r="M20">
-        <v>0.9971864994614694</v>
+        <v>1.031842760479214</v>
       </c>
       <c r="N20">
-        <v>1.005634901774191</v>
+        <v>1.012156184537818</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9707762227514386</v>
+        <v>1.016874065222209</v>
       </c>
       <c r="D21">
-        <v>0.9823404350737197</v>
+        <v>1.019897997647172</v>
       </c>
       <c r="E21">
-        <v>0.9828337192340727</v>
+        <v>1.018446549699056</v>
       </c>
       <c r="F21">
-        <v>0.9761948241464863</v>
+        <v>1.027147382383021</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037818921075131</v>
+        <v>1.029953315239591</v>
       </c>
       <c r="J21">
-        <v>1.001548711310567</v>
+        <v>1.023600619778481</v>
       </c>
       <c r="K21">
-        <v>0.997664279043322</v>
+        <v>1.023539110148179</v>
       </c>
       <c r="L21">
-        <v>0.9981477773789792</v>
+        <v>1.022093263583389</v>
       </c>
       <c r="M21">
-        <v>0.9916416772322912</v>
+        <v>1.030760781015579</v>
       </c>
       <c r="N21">
-        <v>1.004555875733966</v>
+        <v>1.011949486374566</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9672042223578426</v>
+        <v>1.016226940313787</v>
       </c>
       <c r="D22">
-        <v>0.9793401404659016</v>
+        <v>1.019315238995363</v>
       </c>
       <c r="E22">
-        <v>0.9800532593645035</v>
+        <v>1.017901361362332</v>
       </c>
       <c r="F22">
-        <v>0.9719100024789731</v>
+        <v>1.026332945961588</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036720186410788</v>
+        <v>1.029829242844769</v>
       </c>
       <c r="J22">
-        <v>0.9994545279342268</v>
+        <v>1.023208170577465</v>
       </c>
       <c r="K22">
-        <v>0.9953322920476844</v>
+        <v>1.023090014721437</v>
       </c>
       <c r="L22">
-        <v>0.9960304990425721</v>
+        <v>1.021681810989399</v>
       </c>
       <c r="M22">
-        <v>0.9880592497452038</v>
+        <v>1.030079816869979</v>
       </c>
       <c r="N22">
-        <v>1.003859330124097</v>
+        <v>1.011819314928803</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.969106447533413</v>
+        <v>1.016569986166092</v>
       </c>
       <c r="D23">
-        <v>0.9809372185455403</v>
+        <v>1.019624133222139</v>
       </c>
       <c r="E23">
-        <v>0.9815330992603261</v>
+        <v>1.018190326747835</v>
       </c>
       <c r="F23">
-        <v>0.9741922724943254</v>
+        <v>1.026764701685495</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037306831476335</v>
+        <v>1.029895216891838</v>
       </c>
       <c r="J23">
-        <v>1.00057002497199</v>
+        <v>1.023416268261326</v>
       </c>
       <c r="K23">
-        <v>0.9965741954864273</v>
+        <v>1.023328117262179</v>
       </c>
       <c r="L23">
-        <v>0.9971579567550053</v>
+        <v>1.021899947693054</v>
       </c>
       <c r="M23">
-        <v>0.9899677983538377</v>
+        <v>1.030440873384379</v>
       </c>
       <c r="N23">
-        <v>1.004230351957712</v>
+        <v>1.0118883412923</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9764087917084846</v>
+        <v>1.017920684174205</v>
       </c>
       <c r="D24">
-        <v>0.9870828626770265</v>
+        <v>1.020841039078922</v>
       </c>
       <c r="E24">
-        <v>0.9872322847271886</v>
+        <v>1.019329042678262</v>
       </c>
       <c r="F24">
-        <v>0.9829444984946709</v>
+        <v>1.028464317656287</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039525259790168</v>
+        <v>1.030150491891721</v>
       </c>
       <c r="J24">
-        <v>1.004846215886693</v>
+        <v>1.024234351548656</v>
       </c>
       <c r="K24">
-        <v>1.001340679638498</v>
+        <v>1.024264866861678</v>
       </c>
       <c r="L24">
-        <v>1.001487388096679</v>
+        <v>1.022758330080447</v>
       </c>
       <c r="M24">
-        <v>0.9972778976251357</v>
+        <v>1.031860888472616</v>
       </c>
       <c r="N24">
-        <v>1.005652695940618</v>
+        <v>1.012159646244842</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9845265354246743</v>
+        <v>1.019488398012738</v>
       </c>
       <c r="D25">
-        <v>0.9939425928730649</v>
+        <v>1.022254845479894</v>
       </c>
       <c r="E25">
-        <v>0.9936027136048193</v>
+        <v>1.020652666809058</v>
       </c>
       <c r="F25">
-        <v>0.9926587166847849</v>
+        <v>1.030436292012391</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041920769827002</v>
+        <v>1.030437469287571</v>
       </c>
       <c r="J25">
-        <v>1.009586105090758</v>
+        <v>1.025181225538731</v>
       </c>
       <c r="K25">
-        <v>1.006635675766445</v>
+        <v>1.025350560777216</v>
       </c>
       <c r="L25">
-        <v>1.006301157665752</v>
+        <v>1.023753573356644</v>
       </c>
       <c r="M25">
-        <v>1.005372075768839</v>
+        <v>1.033505773868054</v>
       </c>
       <c r="N25">
-        <v>1.007229283928969</v>
+        <v>1.012473548020191</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_87/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_87/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020739023565577</v>
+        <v>0.9907410571962564</v>
       </c>
       <c r="D2">
-        <v>1.023383788850451</v>
+        <v>0.9992143946561944</v>
       </c>
       <c r="E2">
-        <v>1.021710124372327</v>
+        <v>0.998505246638847</v>
       </c>
       <c r="F2">
-        <v>1.032008871629843</v>
+        <v>1.000085898275331</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030658878237871</v>
+        <v>1.043696084066021</v>
       </c>
       <c r="J2">
-        <v>1.025934434659937</v>
+        <v>1.01320227296145</v>
       </c>
       <c r="K2">
-        <v>1.026215386724597</v>
+        <v>1.010684685069457</v>
       </c>
       <c r="L2">
-        <v>1.024546651824302</v>
+        <v>1.009985445104469</v>
       </c>
       <c r="M2">
-        <v>1.034815340958775</v>
+        <v>1.011544036527101</v>
       </c>
       <c r="N2">
-        <v>1.012723153298275</v>
+        <v>1.008432009756707</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021647206146306</v>
+        <v>0.9951145730486182</v>
       </c>
       <c r="D3">
-        <v>1.024204234389573</v>
+        <v>1.002935367744872</v>
       </c>
       <c r="E3">
-        <v>1.022478920721165</v>
+        <v>1.001969288487762</v>
       </c>
       <c r="F3">
-        <v>1.033150557738757</v>
+        <v>1.005308506710292</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030815290256242</v>
+        <v>1.044910582922666</v>
       </c>
       <c r="J3">
-        <v>1.026480149982627</v>
+        <v>1.015739311577196</v>
       </c>
       <c r="K3">
-        <v>1.026842662581355</v>
+        <v>1.013530827267835</v>
       </c>
       <c r="L3">
-        <v>1.025122062327767</v>
+        <v>1.012577033760532</v>
       </c>
       <c r="M3">
-        <v>1.035764818409987</v>
+        <v>1.015873911830826</v>
       </c>
       <c r="N3">
-        <v>1.012903942161363</v>
+        <v>1.009275723647746</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022234911755387</v>
+        <v>0.9978839731845865</v>
       </c>
       <c r="D4">
-        <v>1.024735450234839</v>
+        <v>1.005296346711912</v>
       </c>
       <c r="E4">
-        <v>1.022976834058881</v>
+        <v>1.004168897202695</v>
       </c>
       <c r="F4">
-        <v>1.033889239151937</v>
+        <v>1.008613915766213</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030914482627918</v>
+        <v>1.045663142980715</v>
       </c>
       <c r="J4">
-        <v>1.026832713393403</v>
+        <v>1.017341962465412</v>
       </c>
       <c r="K4">
-        <v>1.027248239625685</v>
+        <v>1.015331267037485</v>
       </c>
       <c r="L4">
-        <v>1.025494185369543</v>
+        <v>1.014217266368597</v>
       </c>
       <c r="M4">
-        <v>1.036378553493329</v>
+        <v>1.01860947832202</v>
       </c>
       <c r="N4">
-        <v>1.01302071631921</v>
+        <v>1.00980863927356</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022481994522112</v>
+        <v>0.9990342410112193</v>
       </c>
       <c r="D5">
-        <v>1.02495885184943</v>
+        <v>1.006278087757879</v>
       </c>
       <c r="E5">
-        <v>1.023186263498707</v>
+        <v>1.005083925608778</v>
       </c>
       <c r="F5">
-        <v>1.034199764963797</v>
+        <v>1.009986465499641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030955699683256</v>
+        <v>1.045971711144373</v>
       </c>
       <c r="J5">
-        <v>1.026980798345791</v>
+        <v>1.018006665933553</v>
       </c>
       <c r="K5">
-        <v>1.027418668495763</v>
+        <v>1.016078613443886</v>
       </c>
       <c r="L5">
-        <v>1.025650575666081</v>
+        <v>1.014898306420829</v>
       </c>
       <c r="M5">
-        <v>1.036636414159825</v>
+        <v>1.019744223031759</v>
       </c>
       <c r="N5">
-        <v>1.013069757998456</v>
+        <v>1.010029650887742</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022523481446248</v>
+        <v>0.9992265700978916</v>
       </c>
       <c r="D6">
-        <v>1.024996366530801</v>
+        <v>1.006442302781061</v>
       </c>
       <c r="E6">
-        <v>1.023221433842818</v>
+        <v>1.005237004242304</v>
       </c>
       <c r="F6">
-        <v>1.034251902681533</v>
+        <v>1.010215941780572</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03096259184208</v>
+        <v>1.046023067834435</v>
       </c>
       <c r="J6">
-        <v>1.027005654655028</v>
+        <v>1.018117749729365</v>
       </c>
       <c r="K6">
-        <v>1.027447279785455</v>
+        <v>1.016203544281013</v>
       </c>
       <c r="L6">
-        <v>1.025676831313048</v>
+        <v>1.01501216443862</v>
       </c>
       <c r="M6">
-        <v>1.036679701087449</v>
+        <v>1.019933870617669</v>
       </c>
       <c r="N6">
-        <v>1.013077989360957</v>
+        <v>1.010066584835854</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022238213243929</v>
+        <v>0.9978993974272579</v>
       </c>
       <c r="D7">
-        <v>1.024738435031294</v>
+        <v>1.005309506794238</v>
       </c>
       <c r="E7">
-        <v>1.022979632047703</v>
+        <v>1.004181161490393</v>
       </c>
       <c r="F7">
-        <v>1.033893388475463</v>
+        <v>1.00863232196271</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030915035272525</v>
+        <v>1.045667296552433</v>
       </c>
       <c r="J7">
-        <v>1.026834692634267</v>
+        <v>1.017350879467258</v>
       </c>
       <c r="K7">
-        <v>1.027250517203299</v>
+        <v>1.015341290280955</v>
       </c>
       <c r="L7">
-        <v>1.025496275262858</v>
+        <v>1.014226399561934</v>
       </c>
       <c r="M7">
-        <v>1.03638199964393</v>
+        <v>1.018624700199593</v>
       </c>
       <c r="N7">
-        <v>1.013021371814073</v>
+        <v>1.009811604213953</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02104593712012</v>
+        <v>0.9922319614739505</v>
       </c>
       <c r="D8">
-        <v>1.023660992662177</v>
+        <v>1.000481824593889</v>
       </c>
       <c r="E8">
-        <v>1.021969848645305</v>
+        <v>0.9996848091762798</v>
       </c>
       <c r="F8">
-        <v>1.032394723375693</v>
+        <v>1.00186663027012</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0307121556019</v>
+        <v>1.044113527071825</v>
       </c>
       <c r="J8">
-        <v>1.026118975283159</v>
+        <v>1.014067923013266</v>
       </c>
       <c r="K8">
-        <v>1.026427441657381</v>
+        <v>1.011655273212405</v>
       </c>
       <c r="L8">
-        <v>1.024741156615038</v>
+        <v>1.010869051614941</v>
       </c>
       <c r="M8">
-        <v>1.0351363537312</v>
+        <v>1.013021376092149</v>
       </c>
       <c r="N8">
-        <v>1.012784294694592</v>
+        <v>1.008719900285765</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018945418717983</v>
+        <v>0.9817570963904072</v>
       </c>
       <c r="D9">
-        <v>1.021765001447214</v>
+        <v>0.991598994600539</v>
       </c>
       <c r="E9">
-        <v>1.020193986672613</v>
+        <v>0.9914251857629293</v>
       </c>
       <c r="F9">
-        <v>1.029753382813528</v>
+        <v>0.989346304138592</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030339237602121</v>
+        <v>1.041112638455033</v>
       </c>
       <c r="J9">
-        <v>1.024853606455448</v>
+        <v>1.007970924054551</v>
       </c>
       <c r="K9">
-        <v>1.024974725760659</v>
+        <v>1.004829858833322</v>
       </c>
       <c r="L9">
-        <v>1.023409002741984</v>
+        <v>1.004658932421332</v>
       </c>
       <c r="M9">
-        <v>1.032936473421835</v>
+        <v>1.002614627857529</v>
       </c>
       <c r="N9">
-        <v>1.012364952232903</v>
+        <v>1.006692047975566</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017545404543967</v>
+        <v>0.9744093040259946</v>
       </c>
       <c r="D10">
-        <v>1.020502823406391</v>
+        <v>0.985397761758192</v>
       </c>
       <c r="E10">
-        <v>1.019012506527999</v>
+        <v>0.9856688528059016</v>
       </c>
       <c r="F10">
-        <v>1.027992152282702</v>
+        <v>0.9805493850152481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030080294813624</v>
+        <v>1.038923389720854</v>
       </c>
       <c r="J10">
-        <v>1.024007261340852</v>
+        <v>1.00367636885822</v>
       </c>
       <c r="K10">
-        <v>1.024004720957709</v>
+        <v>1.000035765996104</v>
       </c>
       <c r="L10">
-        <v>1.022519917994995</v>
+        <v>1.000301772974044</v>
       </c>
       <c r="M10">
-        <v>1.031466608074518</v>
+        <v>0.995278937050918</v>
       </c>
       <c r="N10">
-        <v>1.012084344137782</v>
+        <v>1.005263576638686</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016939270572932</v>
+        <v>0.9711322999584515</v>
       </c>
       <c r="D11">
-        <v>1.019956731000265</v>
+        <v>0.9826398266598393</v>
       </c>
       <c r="E11">
-        <v>1.018501503003402</v>
+        <v>0.9831112707197104</v>
       </c>
       <c r="F11">
-        <v>1.027229438863479</v>
+        <v>0.9766217674468974</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029965726518161</v>
+        <v>1.037927767236892</v>
       </c>
       <c r="J11">
-        <v>1.023640137937234</v>
+        <v>1.001757351538335</v>
       </c>
       <c r="K11">
-        <v>1.023584346681489</v>
+        <v>0.9978967282687838</v>
       </c>
       <c r="L11">
-        <v>1.022134712117656</v>
+        <v>0.9983588700068053</v>
       </c>
       <c r="M11">
-        <v>1.03082936380731</v>
+        <v>0.9919984530337201</v>
       </c>
       <c r="N11">
-        <v>1.011962593049338</v>
+        <v>1.004625272813028</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016714138303317</v>
+        <v>0.9698999274965958</v>
       </c>
       <c r="D12">
-        <v>1.019753954989282</v>
+        <v>0.9816038775630798</v>
       </c>
       <c r="E12">
-        <v>1.018311782592889</v>
+        <v>0.9821509672490009</v>
       </c>
       <c r="F12">
-        <v>1.026946119519924</v>
+        <v>0.9751439834643422</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02992280402919</v>
+        <v>1.037550517798487</v>
       </c>
       <c r="J12">
-        <v>1.02350367494797</v>
+        <v>1.001035158394866</v>
       </c>
       <c r="K12">
-        <v>1.023428148321015</v>
+        <v>0.9970922135328861</v>
       </c>
       <c r="L12">
-        <v>1.021991596309441</v>
+        <v>0.9976283063673138</v>
       </c>
       <c r="M12">
-        <v>1.030592545262173</v>
+        <v>0.9907633980519178</v>
       </c>
       <c r="N12">
-        <v>1.011917332591101</v>
+        <v>1.004385060728193</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01676242934642</v>
+        <v>0.970164974865985</v>
       </c>
       <c r="D13">
-        <v>1.019797448081974</v>
+        <v>0.981826623958989</v>
       </c>
       <c r="E13">
-        <v>1.018352474217068</v>
+        <v>0.9823574307986161</v>
       </c>
       <c r="F13">
-        <v>1.027006893101298</v>
+        <v>0.9754618464949693</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029932027635565</v>
+        <v>1.037631779911055</v>
       </c>
       <c r="J13">
-        <v>1.023532951101144</v>
+        <v>1.00119050360472</v>
       </c>
       <c r="K13">
-        <v>1.023461655768449</v>
+        <v>0.99726524461774</v>
       </c>
       <c r="L13">
-        <v>1.022022296625322</v>
+        <v>0.9977854240735656</v>
       </c>
       <c r="M13">
-        <v>1.030643348968558</v>
+        <v>0.9910290851113305</v>
       </c>
       <c r="N13">
-        <v>1.011927042768777</v>
+        <v>1.004436730611952</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016920660802921</v>
+        <v>0.9710307456263505</v>
       </c>
       <c r="D14">
-        <v>1.019939968098539</v>
+        <v>0.9825544335869447</v>
       </c>
       <c r="E14">
-        <v>1.018485818831932</v>
+        <v>0.9830321051270606</v>
       </c>
       <c r="F14">
-        <v>1.027206019877477</v>
+        <v>0.976500005359641</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029962186009914</v>
+        <v>1.037896736903455</v>
       </c>
       <c r="J14">
-        <v>1.023628859838927</v>
+        <v>1.00169784901378</v>
       </c>
       <c r="K14">
-        <v>1.023571436345362</v>
+        <v>0.9978304334055265</v>
       </c>
       <c r="L14">
-        <v>1.022122882792805</v>
+        <v>0.9982986652324032</v>
       </c>
       <c r="M14">
-        <v>1.030809790712753</v>
+        <v>0.9918967058122771</v>
       </c>
       <c r="N14">
-        <v>1.011958852552536</v>
+        <v>1.004605481300285</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017018154150922</v>
+        <v>0.9715621428349049</v>
       </c>
       <c r="D15">
-        <v>1.020027788297539</v>
+        <v>0.9830013147739008</v>
       </c>
       <c r="E15">
-        <v>1.018567988684032</v>
+        <v>0.9834464124138999</v>
       </c>
       <c r="F15">
-        <v>1.0273287066439</v>
+        <v>0.9771371118770011</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029980719000647</v>
+        <v>1.038058992557332</v>
       </c>
       <c r="J15">
-        <v>1.023687939543664</v>
+        <v>1.002009183571313</v>
       </c>
       <c r="K15">
-        <v>1.023639068831427</v>
+        <v>0.998177327001747</v>
       </c>
       <c r="L15">
-        <v>1.022184852875865</v>
+        <v>0.9986136993896733</v>
       </c>
       <c r="M15">
-        <v>1.030912325373624</v>
+        <v>0.9924290561077134</v>
       </c>
       <c r="N15">
-        <v>1.011978446757214</v>
+        <v>1.004709036441745</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017585633429628</v>
+        <v>0.9746247102048083</v>
       </c>
       <c r="D16">
-        <v>1.020539075101589</v>
+        <v>0.9855792138025656</v>
       </c>
       <c r="E16">
-        <v>1.019046432574977</v>
+        <v>0.9858371761305404</v>
       </c>
       <c r="F16">
-        <v>1.02804276916437</v>
+        <v>0.980807460475044</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030087846878285</v>
+        <v>1.0389884391079</v>
       </c>
       <c r="J16">
-        <v>1.024031612469254</v>
+        <v>1.003802437296314</v>
       </c>
       <c r="K16">
-        <v>1.024032612387638</v>
+        <v>1.000176354980956</v>
       </c>
       <c r="L16">
-        <v>1.022545478141263</v>
+        <v>1.000429495977839</v>
       </c>
       <c r="M16">
-        <v>1.0315088833809</v>
+        <v>0.9954943838566778</v>
       </c>
       <c r="N16">
-        <v>1.012092419197751</v>
+        <v>1.005305509926382</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017941620439646</v>
+        <v>0.9765196866509351</v>
       </c>
       <c r="D17">
-        <v>1.020859910097474</v>
+        <v>0.9871763730816607</v>
       </c>
       <c r="E17">
-        <v>1.019346705258806</v>
+        <v>0.9873190601611603</v>
       </c>
       <c r="F17">
-        <v>1.0284906577207</v>
+        <v>0.9830773064451602</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03015439130645</v>
+        <v>1.039558511240593</v>
       </c>
       <c r="J17">
-        <v>1.024247015786843</v>
+        <v>1.004911072659909</v>
       </c>
       <c r="K17">
-        <v>1.024279377185448</v>
+        <v>1.001413046011343</v>
       </c>
       <c r="L17">
-        <v>1.022771628823412</v>
+        <v>1.001553146497611</v>
       </c>
       <c r="M17">
-        <v>1.031882878839648</v>
+        <v>0.9973887037072675</v>
       </c>
       <c r="N17">
-        <v>1.012163845443768</v>
+        <v>1.005674268914446</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018149269451126</v>
+        <v>0.9776158518960171</v>
       </c>
       <c r="D18">
-        <v>1.021047090009902</v>
+        <v>0.988100991344197</v>
       </c>
       <c r="E18">
-        <v>1.01952190562021</v>
+        <v>0.9881771792438921</v>
       </c>
       <c r="F18">
-        <v>1.028751894970177</v>
+        <v>0.9843899143070145</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030192969666182</v>
+        <v>1.039886445149684</v>
       </c>
       <c r="J18">
-        <v>1.0243725940983</v>
+        <v>1.005552017533888</v>
       </c>
       <c r="K18">
-        <v>1.024423276533532</v>
+        <v>1.002128327600365</v>
       </c>
       <c r="L18">
-        <v>1.022903516800243</v>
+        <v>1.002203159100054</v>
       </c>
       <c r="M18">
-        <v>1.032100948530009</v>
+        <v>0.9984836504843959</v>
       </c>
       <c r="N18">
-        <v>1.012205483418128</v>
+        <v>1.005887463188567</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018220073703163</v>
+        <v>0.9779880891173608</v>
       </c>
       <c r="D19">
-        <v>1.021110920663007</v>
+        <v>0.9884150961878295</v>
       </c>
       <c r="E19">
-        <v>1.019581653945122</v>
+        <v>0.9884687329551258</v>
       </c>
       <c r="F19">
-        <v>1.028840968675613</v>
+        <v>0.9848355853782091</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030206083864917</v>
+        <v>1.039997493240148</v>
       </c>
       <c r="J19">
-        <v>1.024415402383971</v>
+        <v>1.00576960900889</v>
       </c>
       <c r="K19">
-        <v>1.024472336635534</v>
+        <v>1.002371206697131</v>
       </c>
       <c r="L19">
-        <v>1.022948483454499</v>
+        <v>1.002423894450362</v>
       </c>
       <c r="M19">
-        <v>1.03217529184817</v>
+        <v>0.9988553328024421</v>
       </c>
       <c r="N19">
-        <v>1.012219676855437</v>
+        <v>1.005959839545207</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017903425589785</v>
+        <v>0.9763173249928176</v>
       </c>
       <c r="D20">
-        <v>1.020825483157012</v>
+        <v>0.9870057389280679</v>
       </c>
       <c r="E20">
-        <v>1.019314483001151</v>
+        <v>0.9871607170495283</v>
       </c>
       <c r="F20">
-        <v>1.028442604405217</v>
+        <v>0.9828349555444975</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030147276113421</v>
+        <v>1.039497823463952</v>
       </c>
       <c r="J20">
-        <v>1.024223911539922</v>
+        <v>1.0047927196754</v>
       </c>
       <c r="K20">
-        <v>1.024252905208487</v>
+        <v>1.001280990951959</v>
       </c>
       <c r="L20">
-        <v>1.022747367253776</v>
+        <v>1.001433150379612</v>
       </c>
       <c r="M20">
-        <v>1.031842760479214</v>
+        <v>0.9971864994614694</v>
       </c>
       <c r="N20">
-        <v>1.012156184537818</v>
+        <v>1.005634901774191</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016874065222209</v>
+        <v>0.9707762227514387</v>
       </c>
       <c r="D21">
-        <v>1.019897997647172</v>
+        <v>0.9823404350737197</v>
       </c>
       <c r="E21">
-        <v>1.018446549699056</v>
+        <v>0.9828337192340727</v>
       </c>
       <c r="F21">
-        <v>1.027147382383021</v>
+        <v>0.9761948241464865</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029953315239591</v>
+        <v>1.037818921075131</v>
       </c>
       <c r="J21">
-        <v>1.023600619778481</v>
+        <v>1.001548711310567</v>
       </c>
       <c r="K21">
-        <v>1.023539110148179</v>
+        <v>0.9976642790433221</v>
       </c>
       <c r="L21">
-        <v>1.022093263583389</v>
+        <v>0.9981477773789793</v>
       </c>
       <c r="M21">
-        <v>1.030760781015579</v>
+        <v>0.9916416772322914</v>
       </c>
       <c r="N21">
-        <v>1.011949486374566</v>
+        <v>1.004555875733965</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016226940313787</v>
+        <v>0.9672042223578428</v>
       </c>
       <c r="D22">
-        <v>1.019315238995363</v>
+        <v>0.9793401404659016</v>
       </c>
       <c r="E22">
-        <v>1.017901361362332</v>
+        <v>0.9800532593645037</v>
       </c>
       <c r="F22">
-        <v>1.026332945961588</v>
+        <v>0.9719100024789731</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029829242844769</v>
+        <v>1.036720186410788</v>
       </c>
       <c r="J22">
-        <v>1.023208170577465</v>
+        <v>0.999454527934227</v>
       </c>
       <c r="K22">
-        <v>1.023090014721437</v>
+        <v>0.9953322920476844</v>
       </c>
       <c r="L22">
-        <v>1.021681810989399</v>
+        <v>0.9960304990425723</v>
       </c>
       <c r="M22">
-        <v>1.030079816869979</v>
+        <v>0.9880592497452039</v>
       </c>
       <c r="N22">
-        <v>1.011819314928803</v>
+        <v>1.003859330124097</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016569986166092</v>
+        <v>0.9691064475334129</v>
       </c>
       <c r="D23">
-        <v>1.019624133222139</v>
+        <v>0.9809372185455403</v>
       </c>
       <c r="E23">
-        <v>1.018190326747835</v>
+        <v>0.9815330992603259</v>
       </c>
       <c r="F23">
-        <v>1.026764701685495</v>
+        <v>0.9741922724943255</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029895216891838</v>
+        <v>1.037306831476335</v>
       </c>
       <c r="J23">
-        <v>1.023416268261326</v>
+        <v>1.00057002497199</v>
       </c>
       <c r="K23">
-        <v>1.023328117262179</v>
+        <v>0.9965741954864272</v>
       </c>
       <c r="L23">
-        <v>1.021899947693054</v>
+        <v>0.9971579567550052</v>
       </c>
       <c r="M23">
-        <v>1.030440873384379</v>
+        <v>0.9899677983538379</v>
       </c>
       <c r="N23">
-        <v>1.0118883412923</v>
+        <v>1.004230351957712</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017920684174205</v>
+        <v>0.976408791708484</v>
       </c>
       <c r="D24">
-        <v>1.020841039078922</v>
+        <v>0.9870828626770258</v>
       </c>
       <c r="E24">
-        <v>1.019329042678262</v>
+        <v>0.987232284727188</v>
       </c>
       <c r="F24">
-        <v>1.028464317656287</v>
+        <v>0.9829444984946701</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030150491891721</v>
+        <v>1.039525259790168</v>
       </c>
       <c r="J24">
-        <v>1.024234351548656</v>
+        <v>1.004846215886692</v>
       </c>
       <c r="K24">
-        <v>1.024264866861678</v>
+        <v>1.001340679638497</v>
       </c>
       <c r="L24">
-        <v>1.022758330080447</v>
+        <v>1.001487388096678</v>
       </c>
       <c r="M24">
-        <v>1.031860888472616</v>
+        <v>0.9972778976251349</v>
       </c>
       <c r="N24">
-        <v>1.012159646244842</v>
+        <v>1.005652695940618</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019488398012738</v>
+        <v>0.9845265354246738</v>
       </c>
       <c r="D25">
-        <v>1.022254845479894</v>
+        <v>0.993942592873064</v>
       </c>
       <c r="E25">
-        <v>1.020652666809058</v>
+        <v>0.9936027136048189</v>
       </c>
       <c r="F25">
-        <v>1.030436292012391</v>
+        <v>0.9926587166847847</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030437469287571</v>
+        <v>1.041920769827002</v>
       </c>
       <c r="J25">
-        <v>1.025181225538731</v>
+        <v>1.009586105090757</v>
       </c>
       <c r="K25">
-        <v>1.025350560777216</v>
+        <v>1.006635675766444</v>
       </c>
       <c r="L25">
-        <v>1.023753573356644</v>
+        <v>1.006301157665751</v>
       </c>
       <c r="M25">
-        <v>1.033505773868054</v>
+        <v>1.005372075768838</v>
       </c>
       <c r="N25">
-        <v>1.012473548020191</v>
+        <v>1.007229283928969</v>
       </c>
     </row>
   </sheetData>
